--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,52 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + 0.6341363473139612y_1 + 0.0865553363578836y_2</t>
-  </si>
-  <si>
-    <t>-2.417611299255233</t>
+    <t>4.148236775818639 - x - 0.19647355163727953y_1 + 0.37783375314861467y_2</t>
+  </si>
+  <si>
+    <t>-4.148236775818639</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.04172095815123688</t>
-  </si>
-  <si>
-    <t>0.2888906919666797</t>
-  </si>
-  <si>
-    <t>-0.8736655757352693y_1 + 0.31541669917658094y_2</t>
-  </si>
-  <si>
-    <t>-1.0428982246050116</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-5.6381701630113366 + 0.9962378027778391y_1 + 1.0380436574444762y_2</t>
+  </si>
+  <si>
+    <t>5.6381701630113366</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9520276521867266</t>
-  </si>
-  <si>
-    <t>0.05835847048556197</t>
-  </si>
-  <si>
-    <t>0.642136760088212</t>
-  </si>
-  <si>
-    <t>0.6724177645713929y_1 + 0.6788123506572594y_2</t>
-  </si>
-  <si>
-    <t>2.789988520143823</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-2.295340050377834 + 0.4093198992443325y_1 - 0.7871536523929471y_2</t>
+  </si>
+  <si>
+    <t>-2.295340050377834</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.8510116788903407</t>
-  </si>
-  <si>
-    <t>0.8043173902090371</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -129,31 +123,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.6538505826606644</t>
-  </si>
-  <si>
-    <t>-1.4718816752415622</t>
+    <t>-1.928213846545069</t>
+  </si>
+  <si>
+    <t>-0.9746712002034358</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.8597210003412659</t>
-  </si>
-  <si>
-    <t>-0.7561392757386187</t>
+    <t>-3.731360201511336</t>
+  </si>
+  <si>
+    <t>1.6256926952141062</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -624,30 +618,30 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -665,24 +659,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -700,17 +694,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -738,12 +732,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -761,17 +755,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.33977651607159487</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8483134171921847</v>
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>4.148236775818639 - x - 0.19647355163727953y_1 + 0.37783375314861467y_2</t>
-  </si>
-  <si>
-    <t>-4.148236775818639</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>-14.693995843032612 + 1.628647726029941y_1 + 1.4457562493164677y_2</t>
+  </si>
+  <si>
+    <t>14.693995843032612</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-5.6381701630113366 + 0.9962378027778391y_1 + 1.0380436574444762y_2</t>
-  </si>
-  <si>
-    <t>5.6381701630113366</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>-2.295340050377834 + 0.4093198992443325y_1 - 0.7871536523929471y_2</t>
-  </si>
-  <si>
-    <t>-2.295340050377834</t>
+    <t>-7.632469609724886 + 1.6250799744081892y_1 - 0.1062060140754959y_2</t>
+  </si>
+  <si>
+    <t>7.382469609724886</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -123,31 +126,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.928213846545069</t>
-  </si>
-  <si>
-    <t>-0.9746712002034358</t>
+    <t>-8.457250039691433</t>
+  </si>
+  <si>
+    <t>-2.894487521830288</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.731360201511336</t>
-  </si>
-  <si>
-    <t>1.6256926952141062</t>
+    <t>-8.204377271235929</t>
+  </si>
+  <si>
+    <t>-4.834907499179762</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -618,30 +621,30 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -659,24 +662,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -694,17 +697,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -732,12 +735,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -755,17 +758,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.25</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.17</v>
+        <v>1.6500000000000001</v>
       </c>
     </row>
   </sheetData>
